--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfrsf14-Cd160.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.15127465436635</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="H2">
-        <v>5.15127465436635</v>
+        <v>16.197514</v>
       </c>
       <c r="I2">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="J2">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.01393084369743</v>
+        <v>2.032686</v>
       </c>
       <c r="N2">
-        <v>2.01393084369743</v>
+        <v>6.098058</v>
       </c>
       <c r="O2">
-        <v>0.2705304417631136</v>
+        <v>0.2633257518865418</v>
       </c>
       <c r="P2">
-        <v>0.2705304417631136</v>
+        <v>0.2633257518865418</v>
       </c>
       <c r="Q2">
-        <v>10.37431091078521</v>
+        <v>10.974819980868</v>
       </c>
       <c r="R2">
-        <v>10.37431091078521</v>
+        <v>98.77337982781201</v>
       </c>
       <c r="S2">
-        <v>0.04993338740565337</v>
+        <v>0.0479957476157068</v>
       </c>
       <c r="T2">
-        <v>0.04993338740565337</v>
+        <v>0.04799574761570679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.15127465436635</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="H3">
-        <v>5.15127465436635</v>
+        <v>16.197514</v>
       </c>
       <c r="I3">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="J3">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.41326074653147</v>
+        <v>1.425743</v>
       </c>
       <c r="N3">
-        <v>1.41326074653147</v>
+        <v>4.277229</v>
       </c>
       <c r="O3">
-        <v>0.1898426926039309</v>
+        <v>0.1846988897803073</v>
       </c>
       <c r="P3">
-        <v>0.1898426926039309</v>
+        <v>0.1846988897803073</v>
       </c>
       <c r="Q3">
-        <v>7.280094263618428</v>
+        <v>7.697830734300668</v>
       </c>
       <c r="R3">
-        <v>7.280094263618428</v>
+        <v>69.28047660870601</v>
       </c>
       <c r="S3">
-        <v>0.03504037717213736</v>
+        <v>0.03366461971640512</v>
       </c>
       <c r="T3">
-        <v>0.03504037717213736</v>
+        <v>0.03366461971640512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.15127465436635</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="H4">
-        <v>5.15127465436635</v>
+        <v>16.197514</v>
       </c>
       <c r="I4">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="J4">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.92894076855516</v>
+        <v>1.933781333333333</v>
       </c>
       <c r="N4">
-        <v>1.92894076855516</v>
+        <v>5.801344</v>
       </c>
       <c r="O4">
-        <v>0.2591137624636864</v>
+        <v>0.2505130765815081</v>
       </c>
       <c r="P4">
-        <v>0.2591137624636864</v>
+        <v>0.2505130765815081</v>
       </c>
       <c r="Q4">
-        <v>9.936503690832144</v>
+        <v>10.44081673986845</v>
       </c>
       <c r="R4">
-        <v>9.936503690832144</v>
+        <v>93.96735065881602</v>
       </c>
       <c r="S4">
-        <v>0.04782614407056289</v>
+        <v>0.04566041229124009</v>
       </c>
       <c r="T4">
-        <v>0.04782614407056289</v>
+        <v>0.04566041229124008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.15127465436635</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="H5">
-        <v>5.15127465436635</v>
+        <v>16.197514</v>
       </c>
       <c r="I5">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="J5">
-        <v>0.1845758543113491</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.0882455477175</v>
+        <v>2.098496333333333</v>
       </c>
       <c r="N5">
-        <v>2.0882455477175</v>
+        <v>6.295489</v>
       </c>
       <c r="O5">
-        <v>0.2805131031692691</v>
+        <v>0.271851198269753</v>
       </c>
       <c r="P5">
-        <v>0.2805131031692691</v>
+        <v>0.271851198269753</v>
       </c>
       <c r="Q5">
-        <v>10.75712636205053</v>
+        <v>11.33014124603845</v>
       </c>
       <c r="R5">
-        <v>10.75712636205053</v>
+        <v>101.971271214346</v>
       </c>
       <c r="S5">
-        <v>0.05177594566299545</v>
+        <v>0.04954966009858522</v>
       </c>
       <c r="T5">
-        <v>0.05177594566299545</v>
+        <v>0.04954966009858521</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.34603729675398</v>
+        <v>5.399171333333334</v>
       </c>
       <c r="H6">
-        <v>3.34603729675398</v>
+        <v>16.197514</v>
       </c>
       <c r="I6">
-        <v>0.1198922080542748</v>
+        <v>0.1822675802569684</v>
       </c>
       <c r="J6">
-        <v>0.1198922080542748</v>
+        <v>0.1822675802569683</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.01393084369743</v>
+        <v>0.2285763333333334</v>
       </c>
       <c r="N6">
-        <v>2.01393084369743</v>
+        <v>0.685729</v>
       </c>
       <c r="O6">
-        <v>0.2705304417631136</v>
+        <v>0.02961108348188988</v>
       </c>
       <c r="P6">
-        <v>0.2705304417631136</v>
+        <v>0.02961108348188988</v>
       </c>
       <c r="Q6">
-        <v>6.738687716094811</v>
+        <v>1.234122786411778</v>
       </c>
       <c r="R6">
-        <v>6.738687716094811</v>
+        <v>11.107105077706</v>
       </c>
       <c r="S6">
-        <v>0.03243449200887809</v>
+        <v>0.005397140535031154</v>
       </c>
       <c r="T6">
-        <v>0.03243449200887809</v>
+        <v>0.005397140535031153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.34603729675398</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="H7">
-        <v>3.34603729675398</v>
+        <v>11.113427</v>
       </c>
       <c r="I7">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="J7">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.41326074653147</v>
+        <v>2.032686</v>
       </c>
       <c r="N7">
-        <v>1.41326074653147</v>
+        <v>6.098058</v>
       </c>
       <c r="O7">
-        <v>0.1898426926039309</v>
+        <v>0.2633257518865418</v>
       </c>
       <c r="P7">
-        <v>0.1898426926039309</v>
+        <v>0.2633257518865418</v>
       </c>
       <c r="Q7">
-        <v>4.728823167932672</v>
+        <v>7.530035824974</v>
       </c>
       <c r="R7">
-        <v>4.728823167932672</v>
+        <v>67.77032242476599</v>
       </c>
       <c r="S7">
-        <v>0.02276065959925421</v>
+        <v>0.03293080885360442</v>
       </c>
       <c r="T7">
-        <v>0.02276065959925421</v>
+        <v>0.0329308088536044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.34603729675398</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="H8">
-        <v>3.34603729675398</v>
+        <v>11.113427</v>
       </c>
       <c r="I8">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="J8">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.92894076855516</v>
+        <v>1.425743</v>
       </c>
       <c r="N8">
-        <v>1.92894076855516</v>
+        <v>4.277229</v>
       </c>
       <c r="O8">
-        <v>0.2591137624636864</v>
+        <v>0.1846988897803073</v>
       </c>
       <c r="P8">
-        <v>0.2591137624636864</v>
+        <v>0.1846988897803073</v>
       </c>
       <c r="Q8">
-        <v>6.454307754814852</v>
+        <v>5.281630250420333</v>
       </c>
       <c r="R8">
-        <v>6.454307754814852</v>
+        <v>47.534672253783</v>
       </c>
       <c r="S8">
-        <v>0.03106572111902222</v>
+        <v>0.02309794538229934</v>
       </c>
       <c r="T8">
-        <v>0.03106572111902222</v>
+        <v>0.02309794538229934</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.34603729675398</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="H9">
-        <v>3.34603729675398</v>
+        <v>11.113427</v>
       </c>
       <c r="I9">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="J9">
-        <v>0.1198922080542748</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.0882455477175</v>
+        <v>1.933781333333333</v>
       </c>
       <c r="N9">
-        <v>2.0882455477175</v>
+        <v>5.801344</v>
       </c>
       <c r="O9">
-        <v>0.2805131031692691</v>
+        <v>0.2505130765815081</v>
       </c>
       <c r="P9">
-        <v>0.2805131031692691</v>
+        <v>0.2505130765815081</v>
       </c>
       <c r="Q9">
-        <v>6.987347487443198</v>
+        <v>7.163645893987556</v>
       </c>
       <c r="R9">
-        <v>6.987347487443198</v>
+        <v>64.472813045888</v>
       </c>
       <c r="S9">
-        <v>0.03363133532712026</v>
+        <v>0.03132849021081873</v>
       </c>
       <c r="T9">
-        <v>0.03363133532712026</v>
+        <v>0.03132849021081872</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.98409819364594</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="H10">
-        <v>5.98409819364594</v>
+        <v>11.113427</v>
       </c>
       <c r="I10">
-        <v>0.2144168405850736</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="J10">
-        <v>0.2144168405850736</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.01393084369743</v>
+        <v>2.098496333333333</v>
       </c>
       <c r="N10">
-        <v>2.01393084369743</v>
+        <v>6.295489</v>
       </c>
       <c r="O10">
-        <v>0.2705304417631136</v>
+        <v>0.271851198269753</v>
       </c>
       <c r="P10">
-        <v>0.2705304417631136</v>
+        <v>0.271851198269753</v>
       </c>
       <c r="Q10">
-        <v>12.05155992389763</v>
+        <v>7.773828603422555</v>
       </c>
       <c r="R10">
-        <v>12.05155992389763</v>
+        <v>69.96445743080299</v>
       </c>
       <c r="S10">
-        <v>0.05800628260493108</v>
+        <v>0.03399697820174377</v>
       </c>
       <c r="T10">
-        <v>0.05800628260493108</v>
+        <v>0.03399697820174376</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.98409819364594</v>
+        <v>3.704475666666667</v>
       </c>
       <c r="H11">
-        <v>5.98409819364594</v>
+        <v>11.113427</v>
       </c>
       <c r="I11">
-        <v>0.2144168405850736</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="J11">
-        <v>0.2144168405850736</v>
+        <v>0.1250573049452193</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.41326074653147</v>
+        <v>0.2285763333333334</v>
       </c>
       <c r="N11">
-        <v>1.41326074653147</v>
+        <v>0.685729</v>
       </c>
       <c r="O11">
-        <v>0.1898426926039309</v>
+        <v>0.02961108348188988</v>
       </c>
       <c r="P11">
-        <v>0.1898426926039309</v>
+        <v>0.02961108348188988</v>
       </c>
       <c r="Q11">
-        <v>8.457091080469681</v>
+        <v>0.8467554648092223</v>
       </c>
       <c r="R11">
-        <v>8.457091080469681</v>
+        <v>7.620799183283</v>
       </c>
       <c r="S11">
-        <v>0.04070547035629818</v>
+        <v>0.003703082296753049</v>
       </c>
       <c r="T11">
-        <v>0.04070547035629818</v>
+        <v>0.003703082296753048</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.98409819364594</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="H12">
-        <v>5.98409819364594</v>
+        <v>19.115599</v>
       </c>
       <c r="I12">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="J12">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.92894076855516</v>
+        <v>2.032686</v>
       </c>
       <c r="N12">
-        <v>1.92894076855516</v>
+        <v>6.098058</v>
       </c>
       <c r="O12">
-        <v>0.2591137624636864</v>
+        <v>0.2633257518865418</v>
       </c>
       <c r="P12">
-        <v>0.2591137624636864</v>
+        <v>0.2633257518865418</v>
       </c>
       <c r="Q12">
-        <v>11.54297096876094</v>
+        <v>12.952003489638</v>
       </c>
       <c r="R12">
-        <v>11.54297096876094</v>
+        <v>116.568031406742</v>
       </c>
       <c r="S12">
-        <v>0.05555835429957488</v>
+        <v>0.05664248631778043</v>
       </c>
       <c r="T12">
-        <v>0.05555835429957488</v>
+        <v>0.05664248631778043</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.98409819364594</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="H13">
-        <v>5.98409819364594</v>
+        <v>19.115599</v>
       </c>
       <c r="I13">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="J13">
-        <v>0.2144168405850736</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.0882455477175</v>
+        <v>1.425743</v>
       </c>
       <c r="N13">
-        <v>2.0882455477175</v>
+        <v>4.277229</v>
       </c>
       <c r="O13">
-        <v>0.2805131031692691</v>
+        <v>0.1846988897803073</v>
       </c>
       <c r="P13">
-        <v>0.2805131031692691</v>
+        <v>0.1846988897803073</v>
       </c>
       <c r="Q13">
-        <v>12.49626640998547</v>
+        <v>9.084643821685667</v>
       </c>
       <c r="R13">
-        <v>12.49626640998547</v>
+        <v>81.76179439517099</v>
       </c>
       <c r="S13">
-        <v>0.06014673332426949</v>
+        <v>0.03972951472591991</v>
       </c>
       <c r="T13">
-        <v>0.06014673332426949</v>
+        <v>0.0397295147259199</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.7989233487226</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="H14">
-        <v>12.7989233487226</v>
+        <v>19.115599</v>
       </c>
       <c r="I14">
-        <v>0.4585995447463746</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="J14">
-        <v>0.4585995447463746</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.01393084369743</v>
+        <v>1.933781333333333</v>
       </c>
       <c r="N14">
-        <v>2.01393084369743</v>
+        <v>5.801344</v>
       </c>
       <c r="O14">
-        <v>0.2705304417631136</v>
+        <v>0.2505130765815081</v>
       </c>
       <c r="P14">
-        <v>0.2705304417631136</v>
+        <v>0.2505130765815081</v>
       </c>
       <c r="Q14">
-        <v>25.77614649811164</v>
+        <v>12.32179617389511</v>
       </c>
       <c r="R14">
-        <v>25.77614649811164</v>
+        <v>110.896165565056</v>
       </c>
       <c r="S14">
-        <v>0.1240651374325995</v>
+        <v>0.05388642550542117</v>
       </c>
       <c r="T14">
-        <v>0.1240651374325995</v>
+        <v>0.05388642550542116</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.7989233487226</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="H15">
-        <v>12.7989233487226</v>
+        <v>19.115599</v>
       </c>
       <c r="I15">
-        <v>0.4585995447463746</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="J15">
-        <v>0.4585995447463746</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.41326074653147</v>
+        <v>2.098496333333333</v>
       </c>
       <c r="N15">
-        <v>1.41326074653147</v>
+        <v>6.295489</v>
       </c>
       <c r="O15">
-        <v>0.1898426926039309</v>
+        <v>0.271851198269753</v>
       </c>
       <c r="P15">
-        <v>0.1898426926039309</v>
+        <v>0.271851198269753</v>
       </c>
       <c r="Q15">
-        <v>18.08821596661476</v>
+        <v>13.37133813699011</v>
       </c>
       <c r="R15">
-        <v>18.08821596661476</v>
+        <v>120.342043232911</v>
       </c>
       <c r="S15">
-        <v>0.08706177240158863</v>
+        <v>0.05847634600166762</v>
       </c>
       <c r="T15">
-        <v>0.08706177240158863</v>
+        <v>0.05847634600166762</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.7989233487226</v>
+        <v>6.371866333333333</v>
       </c>
       <c r="H16">
-        <v>12.7989233487226</v>
+        <v>19.115599</v>
       </c>
       <c r="I16">
-        <v>0.4585995447463746</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="J16">
-        <v>0.4585995447463746</v>
+        <v>0.2151042422246107</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.92894076855516</v>
+        <v>0.2285763333333334</v>
       </c>
       <c r="N16">
-        <v>1.92894076855516</v>
+        <v>0.685729</v>
       </c>
       <c r="O16">
-        <v>0.2591137624636864</v>
+        <v>0.02961108348188988</v>
       </c>
       <c r="P16">
-        <v>0.2591137624636864</v>
+        <v>0.02961108348188988</v>
       </c>
       <c r="Q16">
-        <v>24.68836504096355</v>
+        <v>1.456457842963444</v>
       </c>
       <c r="R16">
-        <v>24.68836504096355</v>
+        <v>13.108120586671</v>
       </c>
       <c r="S16">
-        <v>0.1188294535033668</v>
+        <v>0.00636946967382161</v>
       </c>
       <c r="T16">
-        <v>0.1188294535033668</v>
+        <v>0.00636946967382161</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.7989233487226</v>
+        <v>13.51475866666667</v>
       </c>
       <c r="H17">
-        <v>12.7989233487226</v>
+        <v>40.544276</v>
       </c>
       <c r="I17">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="J17">
-        <v>0.4585995447463746</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.0882455477175</v>
+        <v>2.032686</v>
       </c>
       <c r="N17">
-        <v>2.0882455477175</v>
+        <v>6.098058</v>
       </c>
       <c r="O17">
-        <v>0.2805131031692691</v>
+        <v>0.2633257518865418</v>
       </c>
       <c r="P17">
-        <v>0.2805131031692691</v>
+        <v>0.2633257518865418</v>
       </c>
       <c r="Q17">
-        <v>26.72729469854752</v>
+        <v>27.471260735112</v>
       </c>
       <c r="R17">
-        <v>26.72729469854752</v>
+        <v>247.241346616008</v>
       </c>
       <c r="S17">
-        <v>0.1286431814088196</v>
+        <v>0.1201389817077829</v>
       </c>
       <c r="T17">
-        <v>0.1286431814088196</v>
+        <v>0.1201389817077829</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.628380100635956</v>
+        <v>13.51475866666667</v>
       </c>
       <c r="H18">
-        <v>0.628380100635956</v>
+        <v>40.544276</v>
       </c>
       <c r="I18">
-        <v>0.02251555230292803</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="J18">
-        <v>0.02251555230292803</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.01393084369743</v>
+        <v>1.425743</v>
       </c>
       <c r="N18">
-        <v>2.01393084369743</v>
+        <v>4.277229</v>
       </c>
       <c r="O18">
-        <v>0.2705304417631136</v>
+        <v>0.1846988897803073</v>
       </c>
       <c r="P18">
-        <v>0.2705304417631136</v>
+        <v>0.1846988897803073</v>
       </c>
       <c r="Q18">
-        <v>1.265514066236447</v>
+        <v>19.26857256568933</v>
       </c>
       <c r="R18">
-        <v>1.265514066236447</v>
+        <v>173.417153091204</v>
       </c>
       <c r="S18">
-        <v>0.00609114231105161</v>
+        <v>0.08426648887088294</v>
       </c>
       <c r="T18">
-        <v>0.00609114231105161</v>
+        <v>0.08426648887088292</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.628380100635956</v>
+        <v>13.51475866666667</v>
       </c>
       <c r="H19">
-        <v>0.628380100635956</v>
+        <v>40.544276</v>
       </c>
       <c r="I19">
-        <v>0.02251555230292803</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="J19">
-        <v>0.02251555230292803</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.41326074653147</v>
+        <v>1.933781333333333</v>
       </c>
       <c r="N19">
-        <v>1.41326074653147</v>
+        <v>5.801344</v>
       </c>
       <c r="O19">
-        <v>0.1898426926039309</v>
+        <v>0.2505130765815081</v>
       </c>
       <c r="P19">
-        <v>0.1898426926039309</v>
+        <v>0.2505130765815081</v>
       </c>
       <c r="Q19">
-        <v>0.8880649301302913</v>
+        <v>26.13458803410489</v>
       </c>
       <c r="R19">
-        <v>0.8880649301302913</v>
+        <v>235.211292306944</v>
       </c>
       <c r="S19">
-        <v>0.004274413074652493</v>
+        <v>0.1142933636735755</v>
       </c>
       <c r="T19">
-        <v>0.004274413074652493</v>
+        <v>0.1142933636735754</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,117 +1647,427 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.628380100635956</v>
+        <v>13.51475866666667</v>
       </c>
       <c r="H20">
-        <v>0.628380100635956</v>
+        <v>40.544276</v>
       </c>
       <c r="I20">
-        <v>0.02251555230292803</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="J20">
-        <v>0.02251555230292803</v>
+        <v>0.4562371163741963</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.92894076855516</v>
+        <v>2.098496333333333</v>
       </c>
       <c r="N20">
-        <v>1.92894076855516</v>
+        <v>6.295489</v>
       </c>
       <c r="O20">
-        <v>0.2591137624636864</v>
+        <v>0.271851198269753</v>
       </c>
       <c r="P20">
-        <v>0.2591137624636864</v>
+        <v>0.271851198269753</v>
       </c>
       <c r="Q20">
-        <v>1.21210799426549</v>
+        <v>28.36067150788488</v>
       </c>
       <c r="R20">
-        <v>1.21210799426549</v>
+        <v>255.246043570964</v>
       </c>
       <c r="S20">
-        <v>0.0058340894711596</v>
+        <v>0.124028606781462</v>
       </c>
       <c r="T20">
-        <v>0.0058340894711596</v>
+        <v>0.124028606781462</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>13.51475866666667</v>
+      </c>
+      <c r="H21">
+        <v>40.544276</v>
+      </c>
+      <c r="I21">
+        <v>0.4562371163741963</v>
+      </c>
+      <c r="J21">
+        <v>0.4562371163741963</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.2285763333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.685729</v>
+      </c>
+      <c r="O21">
+        <v>0.02961108348188988</v>
+      </c>
+      <c r="P21">
+        <v>0.02961108348188988</v>
+      </c>
+      <c r="Q21">
+        <v>3.089153981911556</v>
+      </c>
+      <c r="R21">
+        <v>27.802385837204</v>
+      </c>
+      <c r="S21">
+        <v>0.01350967534049304</v>
+      </c>
+      <c r="T21">
+        <v>0.01350967534049303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.6319533333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.89586</v>
+      </c>
+      <c r="I22">
+        <v>0.02133375619900535</v>
+      </c>
+      <c r="J22">
+        <v>0.02133375619900535</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.032686</v>
+      </c>
+      <c r="N22">
+        <v>6.098058</v>
+      </c>
+      <c r="O22">
+        <v>0.2633257518865418</v>
+      </c>
+      <c r="P22">
+        <v>0.2633257518865418</v>
+      </c>
+      <c r="Q22">
+        <v>1.28456269332</v>
+      </c>
+      <c r="R22">
+        <v>11.56106423988</v>
+      </c>
+      <c r="S22">
+        <v>0.005617727391667255</v>
+      </c>
+      <c r="T22">
+        <v>0.005617727391667255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.6319533333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.89586</v>
+      </c>
+      <c r="I23">
+        <v>0.02133375619900535</v>
+      </c>
+      <c r="J23">
+        <v>0.02133375619900535</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.425743</v>
+      </c>
+      <c r="N23">
+        <v>4.277229</v>
+      </c>
+      <c r="O23">
+        <v>0.1846988897803073</v>
+      </c>
+      <c r="P23">
+        <v>0.1846988897803073</v>
+      </c>
+      <c r="Q23">
+        <v>0.9010030413266665</v>
+      </c>
+      <c r="R23">
+        <v>8.10902737194</v>
+      </c>
+      <c r="S23">
+        <v>0.003940321084800037</v>
+      </c>
+      <c r="T23">
+        <v>0.003940321084800037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.6319533333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.89586</v>
+      </c>
+      <c r="I24">
+        <v>0.02133375619900535</v>
+      </c>
+      <c r="J24">
+        <v>0.02133375619900535</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.933781333333333</v>
+      </c>
+      <c r="N24">
+        <v>5.801344</v>
+      </c>
+      <c r="O24">
+        <v>0.2505130765815081</v>
+      </c>
+      <c r="P24">
+        <v>0.2505130765815081</v>
+      </c>
+      <c r="Q24">
+        <v>1.222059559537778</v>
+      </c>
+      <c r="R24">
+        <v>10.99853603584</v>
+      </c>
+      <c r="S24">
+        <v>0.00534438490045265</v>
+      </c>
+      <c r="T24">
+        <v>0.00534438490045265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.628380100635956</v>
-      </c>
-      <c r="H21">
-        <v>0.628380100635956</v>
-      </c>
-      <c r="I21">
-        <v>0.02251555230292803</v>
-      </c>
-      <c r="J21">
-        <v>0.02251555230292803</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.0882455477175</v>
-      </c>
-      <c r="N21">
-        <v>2.0882455477175</v>
-      </c>
-      <c r="O21">
-        <v>0.2805131031692691</v>
-      </c>
-      <c r="P21">
-        <v>0.2805131031692691</v>
-      </c>
-      <c r="Q21">
-        <v>1.31221194742731</v>
-      </c>
-      <c r="R21">
-        <v>1.31221194742731</v>
-      </c>
-      <c r="S21">
-        <v>0.006315907446064325</v>
-      </c>
-      <c r="T21">
-        <v>0.006315907446064325</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.6319533333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.89586</v>
+      </c>
+      <c r="I25">
+        <v>0.02133375619900535</v>
+      </c>
+      <c r="J25">
+        <v>0.02133375619900535</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.098496333333333</v>
+      </c>
+      <c r="N25">
+        <v>6.295489</v>
+      </c>
+      <c r="O25">
+        <v>0.271851198269753</v>
+      </c>
+      <c r="P25">
+        <v>0.271851198269753</v>
+      </c>
+      <c r="Q25">
+        <v>1.326151752837778</v>
+      </c>
+      <c r="R25">
+        <v>11.93536577554</v>
+      </c>
+      <c r="S25">
+        <v>0.005799607186294374</v>
+      </c>
+      <c r="T25">
+        <v>0.005799607186294374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6319533333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.89586</v>
+      </c>
+      <c r="I26">
+        <v>0.02133375619900535</v>
+      </c>
+      <c r="J26">
+        <v>0.02133375619900535</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.2285763333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.685729</v>
+      </c>
+      <c r="O26">
+        <v>0.02961108348188988</v>
+      </c>
+      <c r="P26">
+        <v>0.02961108348188988</v>
+      </c>
+      <c r="Q26">
+        <v>0.1444495757711111</v>
+      </c>
+      <c r="R26">
+        <v>1.30004618194</v>
+      </c>
+      <c r="S26">
+        <v>0.0006317156357910331</v>
+      </c>
+      <c r="T26">
+        <v>0.0006317156357910331</v>
       </c>
     </row>
   </sheetData>
